--- a/Code/Results/Cases/Case_7_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_32/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.30129240171308</v>
+        <v>24.30129240171317</v>
       </c>
       <c r="C2">
-        <v>13.21252755742122</v>
+        <v>13.21252755742129</v>
       </c>
       <c r="D2">
-        <v>10.31146608009538</v>
+        <v>10.31146608009546</v>
       </c>
       <c r="E2">
-        <v>6.610737239743957</v>
+        <v>6.610737239744211</v>
       </c>
       <c r="F2">
-        <v>63.87838565104293</v>
+        <v>63.87838565104356</v>
       </c>
       <c r="G2">
-        <v>2.082506316860521</v>
+        <v>2.082506316860518</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.359654974026164</v>
+        <v>7.359654974026135</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.50444159584766</v>
+        <v>22.50444159584772</v>
       </c>
       <c r="C3">
-        <v>12.26791569349357</v>
+        <v>12.26791569349375</v>
       </c>
       <c r="D3">
-        <v>9.895798631816456</v>
+        <v>9.895798631816321</v>
       </c>
       <c r="E3">
-        <v>6.553319824536629</v>
+        <v>6.55331982453675</v>
       </c>
       <c r="F3">
-        <v>60.17341659922351</v>
+        <v>60.17341659922359</v>
       </c>
       <c r="G3">
-        <v>2.098607879284038</v>
+        <v>2.098607879283897</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.118224104180894</v>
+        <v>7.118224104180931</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.45149828295629</v>
+        <v>21.45149828295628</v>
       </c>
       <c r="C4">
-        <v>11.6657956542544</v>
+        <v>11.66579565425427</v>
       </c>
       <c r="D4">
-        <v>9.639988260244776</v>
+        <v>9.639988260244706</v>
       </c>
       <c r="E4">
-        <v>6.52019886417409</v>
+        <v>6.520198864174044</v>
       </c>
       <c r="F4">
-        <v>57.85310656200111</v>
+        <v>57.85310656200118</v>
       </c>
       <c r="G4">
-        <v>2.108609924581404</v>
+        <v>2.108609924581144</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.974100053941239</v>
+        <v>6.974100053941232</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.03302064957511</v>
+        <v>21.03302064957508</v>
       </c>
       <c r="C5">
-        <v>11.41460388434311</v>
+        <v>11.41460388434322</v>
       </c>
       <c r="D5">
-        <v>9.53556085806388</v>
+        <v>9.535560858063944</v>
       </c>
       <c r="E5">
-        <v>6.507194285121392</v>
+        <v>6.507194285121567</v>
       </c>
       <c r="F5">
-        <v>56.89617906872494</v>
+        <v>56.89617906872477</v>
       </c>
       <c r="G5">
-        <v>2.112722040903951</v>
+        <v>2.112722040903806</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.916402781130762</v>
+        <v>6.916402781130818</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.96318929997583</v>
+        <v>20.96318929997588</v>
       </c>
       <c r="C6">
-        <v>11.37253503831883</v>
+        <v>11.37253503831885</v>
       </c>
       <c r="D6">
-        <v>9.51820913675971</v>
+        <v>9.518209136759847</v>
       </c>
       <c r="E6">
-        <v>6.505063427511069</v>
+        <v>6.505063427511056</v>
       </c>
       <c r="F6">
-        <v>56.73660080093183</v>
+        <v>56.73660080093155</v>
       </c>
       <c r="G6">
-        <v>2.11340723423864</v>
+        <v>2.113407234238759</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.906884832234115</v>
+        <v>6.906884832234141</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.44587768502376</v>
+        <v>21.44587768502378</v>
       </c>
       <c r="C7">
-        <v>11.66243189000258</v>
+        <v>11.66243189000263</v>
       </c>
       <c r="D7">
-        <v>9.638580685147199</v>
+        <v>9.638580685147232</v>
       </c>
       <c r="E7">
-        <v>6.520021540717488</v>
+        <v>6.520021540717555</v>
       </c>
       <c r="F7">
-        <v>57.84024694285574</v>
+        <v>57.840246942856</v>
       </c>
       <c r="G7">
-        <v>2.108665226608673</v>
+        <v>2.108665226608937</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.973317733668305</v>
+        <v>6.973317733668311</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.68985133540264</v>
+        <v>23.68985133540266</v>
       </c>
       <c r="C8">
-        <v>12.8912499622337</v>
+        <v>12.89124996223361</v>
       </c>
       <c r="D8">
-        <v>10.16823816940957</v>
+        <v>10.16823816940955</v>
       </c>
       <c r="E8">
-        <v>6.590468870055938</v>
+        <v>6.590468870056047</v>
       </c>
       <c r="F8">
-        <v>62.61028892820563</v>
+        <v>62.61028892820534</v>
       </c>
       <c r="G8">
-        <v>2.08803870110763</v>
+        <v>2.088038701107374</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.275551801594108</v>
+        <v>7.275551801594133</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.96797522448685</v>
+        <v>27.96797522448687</v>
       </c>
       <c r="C9">
-        <v>15.13921517447255</v>
+        <v>15.1392151744724</v>
       </c>
       <c r="D9">
-        <v>11.20518903520018</v>
+        <v>11.2051890352001</v>
       </c>
       <c r="E9">
-        <v>6.747826885344506</v>
+        <v>6.747826885344443</v>
       </c>
       <c r="F9">
-        <v>71.61665404632065</v>
+        <v>71.61665404632038</v>
       </c>
       <c r="G9">
-        <v>2.048133856130285</v>
+        <v>2.048133856130407</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.901642675170982</v>
+        <v>7.901642675171012</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.95845847001853</v>
+        <v>30.95845847001843</v>
       </c>
       <c r="C10">
-        <v>16.71542269327223</v>
+        <v>16.71542269327236</v>
       </c>
       <c r="D10">
-        <v>11.97271881131873</v>
+        <v>11.97271881131879</v>
       </c>
       <c r="E10">
-        <v>6.87892543415091</v>
+        <v>6.878925434150937</v>
       </c>
       <c r="F10">
-        <v>78.06325842039254</v>
+        <v>78.06325842039263</v>
       </c>
       <c r="G10">
-        <v>2.018524055742601</v>
+        <v>2.018524055742716</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.29536388528349</v>
+        <v>32.29536388528354</v>
       </c>
       <c r="C11">
-        <v>17.42277144821981</v>
+        <v>17.42277144821988</v>
       </c>
       <c r="D11">
-        <v>12.32552496785956</v>
+        <v>12.32552496785961</v>
       </c>
       <c r="E11">
-        <v>6.942997524909875</v>
+        <v>6.942997524909865</v>
       </c>
       <c r="F11">
-        <v>80.97570642059067</v>
+        <v>80.97570642059047</v>
       </c>
       <c r="G11">
-        <v>2.004813107908994</v>
+        <v>2.004813107908607</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.610438819263587</v>
+        <v>8.610438819263551</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.79929357443757</v>
+        <v>32.79929357443763</v>
       </c>
       <c r="C12">
-        <v>17.68994315425637</v>
+        <v>17.68994315425618</v>
       </c>
       <c r="D12">
         <v>12.45993291376767</v>
       </c>
       <c r="E12">
-        <v>6.968011000741144</v>
+        <v>6.968011000741098</v>
       </c>
       <c r="F12">
-        <v>82.07769877183758</v>
+        <v>82.07769877183722</v>
       </c>
       <c r="G12">
-        <v>1.999567622193949</v>
+        <v>1.999567622193977</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.701379616457817</v>
+        <v>8.701379616457807</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.69084734185404</v>
+        <v>32.69084734185405</v>
       </c>
       <c r="C13">
-        <v>17.63242048265815</v>
+        <v>17.63242048265802</v>
       </c>
       <c r="D13">
-        <v>12.43094441783874</v>
+        <v>12.43094441783881</v>
       </c>
       <c r="E13">
-        <v>6.962588433623661</v>
+        <v>6.962588433623668</v>
       </c>
       <c r="F13">
-        <v>81.84036600472653</v>
+        <v>81.84036600472693</v>
       </c>
       <c r="G13">
-        <v>2.000700052479641</v>
+        <v>2.000700052479632</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.678303790065238</v>
+        <v>8.678303790065225</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.33686220765771</v>
+        <v>32.33686220765772</v>
       </c>
       <c r="C14">
-        <v>17.44476095883836</v>
+        <v>17.44476095883846</v>
       </c>
       <c r="D14">
-        <v>12.33656468048261</v>
+        <v>12.33656468048265</v>
       </c>
       <c r="E14">
-        <v>6.945039613408658</v>
+        <v>6.945039613408696</v>
       </c>
       <c r="F14">
-        <v>81.0663721398808</v>
+        <v>81.06637213988112</v>
       </c>
       <c r="G14">
-        <v>2.004382752175466</v>
+        <v>2.004382752175181</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.617538011065221</v>
+        <v>8.617538011065212</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.11976845395301</v>
+        <v>32.11976845395306</v>
       </c>
       <c r="C15">
-        <v>17.32974840206788</v>
+        <v>17.32974840206818</v>
       </c>
       <c r="D15">
-        <v>12.27886938711978</v>
+        <v>12.27886938711984</v>
       </c>
       <c r="E15">
-        <v>6.934392012962647</v>
+        <v>6.934392012962793</v>
       </c>
       <c r="F15">
-        <v>80.59223268553349</v>
+        <v>80.59223268553409</v>
       </c>
       <c r="G15">
-        <v>2.006630924310471</v>
+        <v>2.006630924310079</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.580457038336622</v>
+        <v>8.580457038336608</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.87070018654205</v>
+        <v>30.87070018654207</v>
       </c>
       <c r="C16">
-        <v>16.66905791450399</v>
+        <v>16.66905791450412</v>
       </c>
       <c r="D16">
-        <v>11.94975793715522</v>
+        <v>11.9497579371552</v>
       </c>
       <c r="E16">
-        <v>6.874836521919011</v>
+        <v>6.874836521918981</v>
       </c>
       <c r="F16">
-        <v>77.87267616548725</v>
+        <v>77.87267616548723</v>
       </c>
       <c r="G16">
-        <v>2.019413731144287</v>
+        <v>2.019413731144314</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.369970305019299</v>
+        <v>8.369970305019269</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.09909488241937</v>
+        <v>30.09909488241935</v>
       </c>
       <c r="C17">
-        <v>16.26172276849895</v>
+        <v>16.2617227684991</v>
       </c>
       <c r="D17">
-        <v>11.74897079667235</v>
+        <v>11.74897079667238</v>
       </c>
       <c r="E17">
-        <v>6.83951002296361</v>
+        <v>6.839510022963677</v>
       </c>
       <c r="F17">
-        <v>76.20040679271685</v>
+        <v>76.20040679271641</v>
       </c>
       <c r="G17">
-        <v>2.027181647753267</v>
+        <v>2.027181647753008</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.242507849472135</v>
+        <v>8.242507849472126</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>29.65300213220384</v>
       </c>
       <c r="C18">
-        <v>16.02647350288556</v>
+        <v>16.02647350288561</v>
       </c>
       <c r="D18">
-        <v>11.63380601662497</v>
+        <v>11.63380601662491</v>
       </c>
       <c r="E18">
         <v>6.819600555164248</v>
       </c>
       <c r="F18">
-        <v>75.236513968512</v>
+        <v>75.23651396851163</v>
       </c>
       <c r="G18">
-        <v>2.031628164516035</v>
+        <v>2.031628164515788</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.169761764073021</v>
+        <v>8.169761764073003</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.50154213982041</v>
+        <v>29.50154213982026</v>
       </c>
       <c r="C19">
-        <v>15.9466380496495</v>
+        <v>15.94663804964945</v>
       </c>
       <c r="D19">
-        <v>11.59486129148807</v>
+        <v>11.59486129148797</v>
       </c>
       <c r="E19">
-        <v>6.812926807755368</v>
+        <v>6.812926807755348</v>
       </c>
       <c r="F19">
-        <v>74.90975283442414</v>
+        <v>74.9097528344238</v>
       </c>
       <c r="G19">
-        <v>2.033130513673578</v>
+        <v>2.033130513673699</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.145224859797633</v>
+        <v>8.145224859797658</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.18146333322489</v>
+        <v>30.18146333322493</v>
       </c>
       <c r="C20">
-        <v>16.30517911202443</v>
+        <v>16.30517911202414</v>
       </c>
       <c r="D20">
-        <v>11.77030974383054</v>
+        <v>11.77030974383069</v>
       </c>
       <c r="E20">
-        <v>6.843227476152985</v>
+        <v>6.843227476152923</v>
       </c>
       <c r="F20">
-        <v>76.37862195528663</v>
+        <v>76.37862195528699</v>
       </c>
       <c r="G20">
-        <v>2.026357075942467</v>
+        <v>2.026357075942463</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.25601685646717</v>
+        <v>8.256016856467149</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.44088975482683</v>
+        <v>32.44088975482685</v>
       </c>
       <c r="C21">
-        <v>17.49989330506253</v>
+        <v>17.49989330506249</v>
       </c>
       <c r="D21">
-        <v>12.36426170078504</v>
+        <v>12.36426170078507</v>
       </c>
       <c r="E21">
-        <v>6.950172723585661</v>
+        <v>6.950172723585629</v>
       </c>
       <c r="F21">
-        <v>81.29371799866344</v>
+        <v>81.29371799866351</v>
       </c>
       <c r="G21">
-        <v>2.003302674855477</v>
+        <v>2.003302674855759</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.635356910403127</v>
+        <v>8.635356910403154</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.90467499133706</v>
+        <v>33.90467499133701</v>
       </c>
       <c r="C22">
-        <v>18.277162974534</v>
+        <v>18.27716297453397</v>
       </c>
       <c r="D22">
-        <v>12.75734898839446</v>
+        <v>12.75734898839455</v>
       </c>
       <c r="E22">
-        <v>7.024516162809443</v>
+        <v>7.024516162809413</v>
       </c>
       <c r="F22">
-        <v>84.50223616671676</v>
+        <v>84.50223616671705</v>
       </c>
       <c r="G22">
-        <v>1.987911775520158</v>
+        <v>1.987911775520034</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.983541400214884</v>
+        <v>8.983541400214971</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.12418690932941</v>
+        <v>33.12418690932925</v>
       </c>
       <c r="C23">
-        <v>17.86236644181474</v>
+        <v>17.86236644181469</v>
       </c>
       <c r="D23">
-        <v>12.5469856172344</v>
+        <v>12.54698561723415</v>
       </c>
       <c r="E23">
-        <v>6.984386197440269</v>
+        <v>6.984386197440344</v>
       </c>
       <c r="F23">
-        <v>82.78930653522085</v>
+        <v>82.78930653522012</v>
       </c>
       <c r="G23">
-        <v>1.996163145005456</v>
+        <v>1.996163145005599</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.784394722240997</v>
+        <v>8.784394722240942</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.14423237752912</v>
+        <v>30.14423237752917</v>
       </c>
       <c r="C24">
-        <v>16.28553587323862</v>
+        <v>16.28553587323865</v>
       </c>
       <c r="D24">
-        <v>11.76066158370847</v>
+        <v>11.76066158370835</v>
       </c>
       <c r="E24">
-        <v>6.841545577197157</v>
+        <v>6.841545577197193</v>
       </c>
       <c r="F24">
-        <v>76.29805875741742</v>
+        <v>76.29805875741698</v>
       </c>
       <c r="G24">
-        <v>2.026729923807919</v>
+        <v>2.026729923807936</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.249907782283204</v>
+        <v>8.249907782283184</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.84013590756359</v>
+        <v>26.84013590756362</v>
       </c>
       <c r="C25">
-        <v>14.54624848351937</v>
+        <v>14.54624848351946</v>
       </c>
       <c r="D25">
-        <v>10.92430225876199</v>
+        <v>10.92430225876201</v>
       </c>
       <c r="E25">
-        <v>6.702848889248111</v>
+        <v>6.702848889248164</v>
       </c>
       <c r="F25">
-        <v>69.21438232845925</v>
+        <v>69.21438232845954</v>
       </c>
       <c r="G25">
-        <v>2.058928815988649</v>
+        <v>2.058928815988918</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.728511748516027</v>
+        <v>7.728511748515984</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.30129240171317</v>
+        <v>24.36640689783715</v>
       </c>
       <c r="C2">
-        <v>13.21252755742129</v>
+        <v>15.25102598008235</v>
       </c>
       <c r="D2">
-        <v>10.31146608009546</v>
+        <v>4.021067206757388</v>
       </c>
       <c r="E2">
-        <v>6.610737239744211</v>
+        <v>8.079009673145793</v>
       </c>
       <c r="F2">
-        <v>63.87838565104356</v>
+        <v>23.50608342324486</v>
       </c>
       <c r="G2">
-        <v>2.082506316860518</v>
+        <v>32.56630946778284</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1.867857607964617</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.54938679974385</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.78564275403158</v>
       </c>
       <c r="L2">
-        <v>7.359654974026135</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>8.370843400878917</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.50444159584772</v>
+        <v>22.73151764927977</v>
       </c>
       <c r="C3">
-        <v>12.26791569349375</v>
+        <v>14.37308013524707</v>
       </c>
       <c r="D3">
-        <v>9.895798631816321</v>
+        <v>3.993614011309193</v>
       </c>
       <c r="E3">
-        <v>6.55331982453675</v>
+        <v>7.880161258225509</v>
       </c>
       <c r="F3">
-        <v>60.17341659922359</v>
+        <v>22.67717192595663</v>
       </c>
       <c r="G3">
-        <v>2.098607879283897</v>
+        <v>31.25658388491253</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>1.578945487473011</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.43278462180004</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.77845756765651</v>
       </c>
       <c r="L3">
-        <v>7.118224104180931</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.9992375759124</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.45149828295628</v>
+        <v>21.66800434983743</v>
       </c>
       <c r="C4">
-        <v>11.66579565425427</v>
+        <v>13.80643271012516</v>
       </c>
       <c r="D4">
-        <v>9.639988260244706</v>
+        <v>3.976241645196986</v>
       </c>
       <c r="E4">
-        <v>6.520198864174044</v>
+        <v>7.754895472982517</v>
       </c>
       <c r="F4">
-        <v>57.85310656200118</v>
+        <v>22.1759274451933</v>
       </c>
       <c r="G4">
-        <v>2.108609924581144</v>
+        <v>30.46098349347553</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>1.728955799189398</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.36895326969761</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.78865434115044</v>
       </c>
       <c r="L4">
-        <v>6.974100053941232</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.762448985100264</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.03302064957508</v>
+        <v>21.21951138177871</v>
       </c>
       <c r="C5">
-        <v>11.41460388434322</v>
+        <v>13.56863312202922</v>
       </c>
       <c r="D5">
-        <v>9.535560858063944</v>
+        <v>3.9690372164652</v>
       </c>
       <c r="E5">
-        <v>6.507194285121567</v>
+        <v>7.703028884914175</v>
       </c>
       <c r="F5">
-        <v>56.89617906872477</v>
+        <v>21.97384201417631</v>
       </c>
       <c r="G5">
-        <v>2.112722040903806</v>
+        <v>30.13933050232636</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>1.806659866513913</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.34484229290122</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.79630246126916</v>
       </c>
       <c r="L5">
-        <v>6.916402781130818</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.663851972381094</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.96318929997588</v>
+        <v>21.14412458108586</v>
       </c>
       <c r="C6">
-        <v>11.37253503831885</v>
+        <v>13.52873269303031</v>
       </c>
       <c r="D6">
-        <v>9.518209136759847</v>
+        <v>3.967833514940897</v>
       </c>
       <c r="E6">
-        <v>6.505063427511056</v>
+        <v>7.694366355021076</v>
       </c>
       <c r="F6">
-        <v>56.73660080093155</v>
+        <v>21.94042439616431</v>
       </c>
       <c r="G6">
-        <v>2.113407234238759</v>
+        <v>30.08608726020745</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>1.819648605043038</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.34095191043281</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.79777812306909</v>
       </c>
       <c r="L6">
-        <v>6.906884832234141</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.647355066360197</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.44587768502378</v>
+        <v>21.6620170908101</v>
       </c>
       <c r="C7">
-        <v>11.66243189000263</v>
+        <v>13.80325346059079</v>
       </c>
       <c r="D7">
-        <v>9.638580685147232</v>
+        <v>3.976144983725985</v>
       </c>
       <c r="E7">
-        <v>6.520021540717555</v>
+        <v>7.754199329128836</v>
       </c>
       <c r="F7">
-        <v>57.840246942856</v>
+        <v>22.1731929206219</v>
       </c>
       <c r="G7">
-        <v>2.108665226608937</v>
+        <v>30.4566346464632</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>1.729997998327762</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.36862047497503</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.78874358189974</v>
       </c>
       <c r="L7">
-        <v>6.973317733668311</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.761127695639016</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.68985133540266</v>
+        <v>23.81502700623625</v>
       </c>
       <c r="C8">
-        <v>12.89124996223361</v>
+        <v>14.95405892546856</v>
       </c>
       <c r="D8">
-        <v>10.16823816940955</v>
+        <v>4.011711203563377</v>
       </c>
       <c r="E8">
-        <v>6.590468870056047</v>
+        <v>8.011091142521913</v>
       </c>
       <c r="F8">
-        <v>62.61028892820534</v>
+        <v>23.21881285512682</v>
       </c>
       <c r="G8">
-        <v>2.088038701107374</v>
+        <v>32.11316874935144</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>1.769321575477948</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.50754162587208</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.78002450627477</v>
       </c>
       <c r="L8">
-        <v>7.275551801594133</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>8.244537749096624</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.96797522448687</v>
+        <v>27.56788314015829</v>
       </c>
       <c r="C9">
-        <v>15.1392151744724</v>
+        <v>16.99078868943741</v>
       </c>
       <c r="D9">
-        <v>11.2051890352001</v>
+        <v>4.077164996037507</v>
       </c>
       <c r="E9">
-        <v>6.747826885344443</v>
+        <v>8.490802304496679</v>
       </c>
       <c r="F9">
-        <v>71.61665404632038</v>
+        <v>25.32083904534397</v>
       </c>
       <c r="G9">
-        <v>2.048133856130407</v>
+        <v>35.41381666210959</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.462501292353056</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.84365471745577</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.88691722811185</v>
       </c>
       <c r="L9">
-        <v>7.901642675171012</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>9.121890806994571</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.95845847001843</v>
+        <v>30.04104258651173</v>
       </c>
       <c r="C10">
-        <v>16.71542269327236</v>
+        <v>18.43770089525294</v>
       </c>
       <c r="D10">
-        <v>11.97271881131879</v>
+        <v>4.148326864748595</v>
       </c>
       <c r="E10">
-        <v>6.878925434150937</v>
+        <v>8.750745734074567</v>
       </c>
       <c r="F10">
-        <v>78.06325842039263</v>
+        <v>26.65068514053313</v>
       </c>
       <c r="G10">
-        <v>2.018524055742716</v>
+        <v>37.43550924127181</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.934818634390791</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.04339955407503</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.86764158672216</v>
       </c>
       <c r="L10">
-        <v>8.384594531596653</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>9.587938706845559</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.29536388528354</v>
+        <v>31.07251379943773</v>
       </c>
       <c r="C11">
-        <v>17.42277144821988</v>
+        <v>19.80320539315215</v>
       </c>
       <c r="D11">
-        <v>12.32552496785961</v>
+        <v>4.438149020384734</v>
       </c>
       <c r="E11">
-        <v>6.942997524909865</v>
+        <v>8.428293940800028</v>
       </c>
       <c r="F11">
-        <v>80.97570642059047</v>
+        <v>25.23786460194314</v>
       </c>
       <c r="G11">
-        <v>2.004813107908607</v>
+        <v>34.77226048195962</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.635393925862381</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.37657246655979</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.29950484320566</v>
       </c>
       <c r="L11">
-        <v>8.610438819263551</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.670057932747039</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.79929357443763</v>
+        <v>31.44287585511629</v>
       </c>
       <c r="C12">
-        <v>17.68994315425618</v>
+        <v>20.67901729528876</v>
       </c>
       <c r="D12">
-        <v>12.45993291376767</v>
+        <v>4.707117253743914</v>
       </c>
       <c r="E12">
-        <v>6.968011000741098</v>
+        <v>8.458599906401279</v>
       </c>
       <c r="F12">
-        <v>82.07769877183722</v>
+        <v>23.7337250913985</v>
       </c>
       <c r="G12">
-        <v>1.999567622193977</v>
+        <v>32.04745552045424</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.704509301916633</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.761069945955922</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.99498690147164</v>
       </c>
       <c r="L12">
-        <v>8.701379616457807</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.831246731392029</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.69084734185405</v>
+        <v>31.33937124053572</v>
       </c>
       <c r="C13">
-        <v>17.63242048265802</v>
+        <v>21.25443978054331</v>
       </c>
       <c r="D13">
-        <v>12.43094441783881</v>
+        <v>4.968439595643718</v>
       </c>
       <c r="E13">
-        <v>6.962588433623668</v>
+        <v>8.749700552259062</v>
       </c>
       <c r="F13">
-        <v>81.84036600472693</v>
+        <v>22.02178281474949</v>
       </c>
       <c r="G13">
-        <v>2.000700052479632</v>
+        <v>29.01818355770374</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.891456262260368</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.141952982833953</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>11.83138420084362</v>
       </c>
       <c r="L13">
-        <v>8.678303790065225</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.000280858926004</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.33686220765772</v>
+        <v>31.05175697882011</v>
       </c>
       <c r="C14">
-        <v>17.44476095883846</v>
+        <v>21.53022946188834</v>
       </c>
       <c r="D14">
-        <v>12.33656468048265</v>
+        <v>5.149349734272344</v>
       </c>
       <c r="E14">
-        <v>6.945039613408696</v>
+        <v>9.099695219343609</v>
       </c>
       <c r="F14">
-        <v>81.06637213988112</v>
+        <v>20.71100819223997</v>
       </c>
       <c r="G14">
-        <v>2.004382752175181</v>
+        <v>26.72150209010034</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.767649147858415</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.708818130834803</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>11.11147408312088</v>
       </c>
       <c r="L14">
-        <v>8.617538011065212</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.436617643260982</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.11976845395306</v>
+        <v>30.87886520043892</v>
       </c>
       <c r="C15">
-        <v>17.32974840206818</v>
+        <v>21.53236864072416</v>
       </c>
       <c r="D15">
-        <v>12.27886938711984</v>
+        <v>5.186838461057673</v>
       </c>
       <c r="E15">
-        <v>6.934392012962793</v>
+        <v>9.189666859374594</v>
       </c>
       <c r="F15">
-        <v>80.59223268553409</v>
+        <v>20.34775060921872</v>
       </c>
       <c r="G15">
-        <v>2.006630924310079</v>
+        <v>26.09530646493158</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.965462832857723</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.604695007595877</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>10.96943571009314</v>
       </c>
       <c r="L15">
-        <v>8.580457038336608</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.296780496466707</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.87070018654207</v>
+        <v>29.88520497992048</v>
       </c>
       <c r="C16">
-        <v>16.66905791450412</v>
+        <v>20.8667232055212</v>
       </c>
       <c r="D16">
-        <v>11.9497579371552</v>
+        <v>5.098816490163832</v>
       </c>
       <c r="E16">
-        <v>6.874836521918981</v>
+        <v>9.010545712777963</v>
       </c>
       <c r="F16">
-        <v>77.87267616548723</v>
+        <v>20.01602036962436</v>
       </c>
       <c r="G16">
-        <v>2.019413731144314</v>
+        <v>25.62270071837452</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.668824798084455</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.632846213555638</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>11.23315890912429</v>
       </c>
       <c r="L16">
-        <v>8.369970305019269</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.228390180704724</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.09909488241935</v>
+        <v>29.26610086888792</v>
       </c>
       <c r="C17">
-        <v>16.2617227684991</v>
+        <v>20.18943808473629</v>
       </c>
       <c r="D17">
-        <v>11.74897079667238</v>
+        <v>4.931741819498136</v>
       </c>
       <c r="E17">
-        <v>6.839510022963677</v>
+        <v>8.655350423979332</v>
       </c>
       <c r="F17">
-        <v>76.20040679271641</v>
+        <v>20.49083161582163</v>
       </c>
       <c r="G17">
-        <v>2.027181647753008</v>
+        <v>26.54658095937589</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.922080217578749</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.886522774713029</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>11.79792401421585</v>
       </c>
       <c r="L17">
-        <v>8.242507849472126</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.472882455488387</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.65300213220384</v>
+        <v>28.914260374552</v>
       </c>
       <c r="C18">
-        <v>16.02647350288561</v>
+        <v>19.43794753579063</v>
       </c>
       <c r="D18">
-        <v>11.63380601662491</v>
+        <v>4.691128152693135</v>
       </c>
       <c r="E18">
-        <v>6.819600555164248</v>
+        <v>8.260792739095116</v>
       </c>
       <c r="F18">
-        <v>75.23651396851163</v>
+        <v>21.7006903869431</v>
       </c>
       <c r="G18">
-        <v>2.031628164515788</v>
+        <v>28.75528393955319</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.751998866989542</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.361706652728632</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.72507233030546</v>
       </c>
       <c r="L18">
-        <v>8.169761764073003</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.06166589776864</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.50154213982026</v>
+        <v>28.8108266843772</v>
       </c>
       <c r="C19">
-        <v>15.94663804964945</v>
+        <v>18.70174596460565</v>
       </c>
       <c r="D19">
-        <v>11.59486129148797</v>
+        <v>4.431483694870026</v>
       </c>
       <c r="E19">
-        <v>6.812926807755348</v>
+        <v>8.124447488594068</v>
       </c>
       <c r="F19">
-        <v>74.9097528344238</v>
+        <v>23.38882796238432</v>
       </c>
       <c r="G19">
-        <v>2.033130513673699</v>
+        <v>31.78838887620597</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.513217861558505</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.983336729804609</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.93548454696421</v>
       </c>
       <c r="L19">
-        <v>8.145224859797658</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.930150280085924</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.18146333322493</v>
+        <v>29.41002932043187</v>
       </c>
       <c r="C20">
-        <v>16.30517911202414</v>
+        <v>18.07133989560766</v>
       </c>
       <c r="D20">
-        <v>11.77030974383069</v>
+        <v>4.130772223368105</v>
       </c>
       <c r="E20">
-        <v>6.843227476152923</v>
+        <v>8.67901847090897</v>
       </c>
       <c r="F20">
-        <v>76.37862195528699</v>
+        <v>26.28848973176472</v>
       </c>
       <c r="G20">
-        <v>2.026357075942463</v>
+        <v>36.88237565285603</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.81036001010725</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.98396201616259</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.85828390331184</v>
       </c>
       <c r="L20">
-        <v>8.256016856467149</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>9.461759585065774</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.44088975482685</v>
+        <v>31.22774857473844</v>
       </c>
       <c r="C21">
-        <v>17.49989330506249</v>
+        <v>19.00723045476578</v>
       </c>
       <c r="D21">
-        <v>12.36426170078507</v>
+        <v>4.144436144238036</v>
       </c>
       <c r="E21">
-        <v>6.950172723585629</v>
+        <v>8.998963974536656</v>
       </c>
       <c r="F21">
-        <v>81.29371799866351</v>
+        <v>27.67782448896407</v>
       </c>
       <c r="G21">
-        <v>2.003302674855759</v>
+        <v>39.08387143243415</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>3.190851656324784</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.28845754502515</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>16.15954456147052</v>
       </c>
       <c r="L21">
-        <v>8.635356910403154</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>10.01219994494048</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.90467499133701</v>
+        <v>32.36458613035898</v>
       </c>
       <c r="C22">
-        <v>18.27716297453397</v>
+        <v>19.63878413944725</v>
       </c>
       <c r="D22">
-        <v>12.75734898839455</v>
+        <v>4.165884122490148</v>
       </c>
       <c r="E22">
-        <v>7.024516162809413</v>
+        <v>9.16521318430852</v>
       </c>
       <c r="F22">
-        <v>84.50223616671705</v>
+        <v>28.46624254425911</v>
       </c>
       <c r="G22">
-        <v>1.987911775520034</v>
+        <v>40.30649294995523</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>3.428027311808282</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.45027084436633</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.28118391956772</v>
       </c>
       <c r="L22">
-        <v>8.983541400214971</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>10.29464650820463</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.12418690932925</v>
+        <v>31.76227650328502</v>
       </c>
       <c r="C23">
-        <v>17.86236644181469</v>
+        <v>19.3038897858722</v>
       </c>
       <c r="D23">
-        <v>12.54698561723415</v>
+        <v>4.154492103778574</v>
       </c>
       <c r="E23">
-        <v>6.984386197440344</v>
+        <v>9.076626118312255</v>
       </c>
       <c r="F23">
-        <v>82.78930653522012</v>
+        <v>28.04534281986498</v>
       </c>
       <c r="G23">
-        <v>1.996163145005599</v>
+        <v>39.65405093404239</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>3.301710413681771</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.36314465778438</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>16.21447411152311</v>
       </c>
       <c r="L23">
-        <v>8.784394722240942</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>10.14468042597017</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.14423237752917</v>
+        <v>29.3828667411151</v>
       </c>
       <c r="C24">
-        <v>16.28553587323865</v>
+        <v>17.98743771267669</v>
       </c>
       <c r="D24">
-        <v>11.76066158370835</v>
+        <v>4.110157392486627</v>
       </c>
       <c r="E24">
-        <v>6.841545577197193</v>
+        <v>8.737719536053492</v>
       </c>
       <c r="F24">
-        <v>76.29805875741698</v>
+        <v>26.45408699428316</v>
       </c>
       <c r="G24">
-        <v>2.026729923807936</v>
+        <v>37.1815950461664</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2.81708134360291</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.04972299598734</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>16.00005139618995</v>
       </c>
       <c r="L24">
-        <v>8.249907782283184</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>9.559588563867734</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.84013590756362</v>
+        <v>26.602231601332</v>
       </c>
       <c r="C25">
-        <v>14.54624848351946</v>
+        <v>16.46343033874505</v>
       </c>
       <c r="D25">
-        <v>10.92430225876201</v>
+        <v>4.059944115948693</v>
       </c>
       <c r="E25">
-        <v>6.702848889248164</v>
+        <v>8.363433668324264</v>
       </c>
       <c r="F25">
-        <v>69.21438232845954</v>
+        <v>24.74791841211179</v>
       </c>
       <c r="G25">
-        <v>2.058928815988918</v>
+        <v>34.51734736949192</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.279048515349857</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.74562487878332</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.84358629167003</v>
       </c>
       <c r="L25">
-        <v>7.728511748515984</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>8.892365867808335</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.36640689783715</v>
+        <v>24.37616730219682</v>
       </c>
       <c r="C2">
-        <v>15.25102598008235</v>
+        <v>15.87440585516613</v>
       </c>
       <c r="D2">
-        <v>4.021067206757388</v>
+        <v>4.146359301769461</v>
       </c>
       <c r="E2">
-        <v>8.079009673145793</v>
+        <v>7.872374074835058</v>
       </c>
       <c r="F2">
-        <v>23.50608342324486</v>
+        <v>22.09276541187344</v>
       </c>
       <c r="G2">
-        <v>32.56630946778284</v>
+        <v>29.49370971399787</v>
       </c>
       <c r="H2">
-        <v>1.867857607964617</v>
+        <v>1.87872434580212</v>
       </c>
       <c r="J2">
-        <v>10.54938679974385</v>
+        <v>10.5564914844436</v>
       </c>
       <c r="K2">
-        <v>15.78564275403158</v>
+        <v>14.64108156786876</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.80073655586264</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.982105152555661</v>
       </c>
       <c r="N2">
-        <v>8.370843400878917</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.457828337219429</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.73151764927977</v>
+        <v>22.75816742248286</v>
       </c>
       <c r="C3">
-        <v>14.37308013524707</v>
+        <v>14.87658247868836</v>
       </c>
       <c r="D3">
-        <v>3.993614011309193</v>
+        <v>4.073418232711069</v>
       </c>
       <c r="E3">
-        <v>7.880161258225509</v>
+        <v>7.709693885749252</v>
       </c>
       <c r="F3">
-        <v>22.67717192595663</v>
+        <v>21.42872838980201</v>
       </c>
       <c r="G3">
-        <v>31.25658388491253</v>
+        <v>28.47555563045589</v>
       </c>
       <c r="H3">
-        <v>1.578945487473011</v>
+        <v>1.622258760015635</v>
       </c>
       <c r="J3">
-        <v>10.43278462180004</v>
+        <v>10.45722836945813</v>
       </c>
       <c r="K3">
-        <v>15.77845756765651</v>
+        <v>14.74676926721239</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.95924525098096</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.957180836661609</v>
       </c>
       <c r="N3">
-        <v>7.9992375759124</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>8.095546160028425</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.66800434983743</v>
+        <v>21.7049308471593</v>
       </c>
       <c r="C4">
-        <v>13.80643271012516</v>
+        <v>14.23134014942456</v>
       </c>
       <c r="D4">
-        <v>3.976241645196986</v>
+        <v>4.027864453149935</v>
       </c>
       <c r="E4">
-        <v>7.754895472982517</v>
+        <v>7.60714384699235</v>
       </c>
       <c r="F4">
-        <v>22.1759274451933</v>
+        <v>21.02820690634144</v>
       </c>
       <c r="G4">
-        <v>30.46098349347553</v>
+        <v>27.86578474612868</v>
       </c>
       <c r="H4">
-        <v>1.728955799189398</v>
+        <v>1.663726173993864</v>
       </c>
       <c r="J4">
-        <v>10.36895326969761</v>
+        <v>10.39952329167962</v>
       </c>
       <c r="K4">
-        <v>15.78865434115044</v>
+        <v>14.82246479159616</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.05957676818182</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.974502640508604</v>
       </c>
       <c r="N4">
-        <v>7.762448985100264</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.865017214711062</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.21951138177871</v>
+        <v>21.26062244724928</v>
       </c>
       <c r="C5">
-        <v>13.56863312202922</v>
+        <v>13.96026484563065</v>
       </c>
       <c r="D5">
-        <v>3.9690372164652</v>
+        <v>4.009124748131723</v>
       </c>
       <c r="E5">
-        <v>7.703028884914175</v>
+        <v>7.564663631726972</v>
       </c>
       <c r="F5">
-        <v>21.97384201417631</v>
+        <v>20.86692949121155</v>
       </c>
       <c r="G5">
-        <v>30.13933050232636</v>
+        <v>27.62135197329367</v>
       </c>
       <c r="H5">
-        <v>1.806659866513913</v>
+        <v>1.732819199897922</v>
       </c>
       <c r="J5">
-        <v>10.34484229290122</v>
+        <v>10.37680369198514</v>
       </c>
       <c r="K5">
-        <v>15.79630246126916</v>
+        <v>14.85587691990576</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.1012248581855</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.989491046034642</v>
       </c>
       <c r="N5">
-        <v>7.663851972381094</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.769117878671904</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.14412458108586</v>
+        <v>21.18593091296781</v>
       </c>
       <c r="C6">
-        <v>13.52873269303031</v>
+        <v>13.9147639311865</v>
       </c>
       <c r="D6">
-        <v>3.967833514940897</v>
+        <v>4.006002902317026</v>
       </c>
       <c r="E6">
-        <v>7.694366355021076</v>
+        <v>7.557567562568586</v>
       </c>
       <c r="F6">
-        <v>21.94042439616431</v>
+        <v>20.84027030571452</v>
       </c>
       <c r="G6">
-        <v>30.08608726020745</v>
+        <v>27.58101427191634</v>
       </c>
       <c r="H6">
-        <v>1.819648605043038</v>
+        <v>1.744370810570312</v>
       </c>
       <c r="J6">
-        <v>10.34095191043281</v>
+        <v>10.37307858168139</v>
       </c>
       <c r="K6">
-        <v>15.79777812306909</v>
+        <v>14.86157566182309</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.10818671453359</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.992449572454593</v>
       </c>
       <c r="N6">
-        <v>7.647355066360197</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.753078151918072</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.6620170908101</v>
+        <v>21.69863581663741</v>
       </c>
       <c r="C7">
-        <v>13.80325346059079</v>
+        <v>14.21803178316008</v>
       </c>
       <c r="D7">
-        <v>3.976144983725985</v>
+        <v>4.030913094815522</v>
       </c>
       <c r="E7">
-        <v>7.754199329128836</v>
+        <v>7.606421365772325</v>
       </c>
       <c r="F7">
-        <v>22.1731929206219</v>
+        <v>20.99508919045695</v>
       </c>
       <c r="G7">
-        <v>30.4566346464632</v>
+        <v>27.93289789982194</v>
       </c>
       <c r="H7">
-        <v>1.729997998327762</v>
+        <v>1.665441429626341</v>
       </c>
       <c r="J7">
-        <v>10.36862047497503</v>
+        <v>10.34369330451181</v>
       </c>
       <c r="K7">
-        <v>15.78874358189974</v>
+        <v>14.8075031825812</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.04735088884499</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.96404734295111</v>
       </c>
       <c r="N7">
-        <v>7.761127695639016</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.862748031892244</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.81502700623625</v>
+        <v>23.82949415510942</v>
       </c>
       <c r="C8">
-        <v>14.95405892546856</v>
+        <v>15.50720795016995</v>
       </c>
       <c r="D8">
-        <v>4.011711203563377</v>
+        <v>4.132654813904251</v>
       </c>
       <c r="E8">
-        <v>8.011091142521913</v>
+        <v>7.816482263297439</v>
       </c>
       <c r="F8">
-        <v>23.21881285512682</v>
+        <v>21.76385412592422</v>
       </c>
       <c r="G8">
-        <v>32.11316874935144</v>
+        <v>29.3644079000422</v>
       </c>
       <c r="H8">
-        <v>1.769321575477948</v>
+        <v>1.788909250965321</v>
       </c>
       <c r="J8">
-        <v>10.50754162587208</v>
+        <v>10.34089628528735</v>
       </c>
       <c r="K8">
-        <v>15.78002450627477</v>
+        <v>14.62461659401685</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.81540898028244</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.928268154594104</v>
       </c>
       <c r="N8">
-        <v>8.244537749096624</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.331567859825219</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.56788314015829</v>
+        <v>27.53861728848872</v>
       </c>
       <c r="C9">
-        <v>16.99078868943741</v>
+        <v>17.81107731751799</v>
       </c>
       <c r="D9">
-        <v>4.077164996037507</v>
+        <v>4.313151965716407</v>
       </c>
       <c r="E9">
-        <v>8.490802304496679</v>
+        <v>8.208763566115973</v>
       </c>
       <c r="F9">
-        <v>25.32083904534397</v>
+        <v>23.43791177759352</v>
       </c>
       <c r="G9">
-        <v>35.41381666210959</v>
+        <v>32.02286390007297</v>
       </c>
       <c r="H9">
-        <v>2.462501292353056</v>
+        <v>2.402675067602981</v>
       </c>
       <c r="J9">
-        <v>10.84365471745577</v>
+        <v>10.56352718548345</v>
       </c>
       <c r="K9">
-        <v>15.88691722811185</v>
+        <v>14.41480945084488</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.43075756430388</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.165083172487266</v>
       </c>
       <c r="N9">
-        <v>9.121890806994571</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>9.187627176412404</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.04104258651173</v>
+        <v>29.97657367609569</v>
       </c>
       <c r="C10">
-        <v>18.43770089525294</v>
+        <v>19.36872943192181</v>
       </c>
       <c r="D10">
-        <v>4.148326864748595</v>
+        <v>4.488256207040657</v>
       </c>
       <c r="E10">
-        <v>8.750745734074567</v>
+        <v>8.419950369189678</v>
       </c>
       <c r="F10">
-        <v>26.65068514053313</v>
+        <v>24.34643856914293</v>
       </c>
       <c r="G10">
-        <v>37.43550924127181</v>
+        <v>34.02932357301835</v>
       </c>
       <c r="H10">
-        <v>2.934818634390791</v>
+        <v>2.815994083745408</v>
       </c>
       <c r="J10">
-        <v>11.04339955407503</v>
+        <v>10.37747280497543</v>
       </c>
       <c r="K10">
-        <v>15.86764158672216</v>
+        <v>14.10054619920211</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.01032579813818</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.313914748275423</v>
       </c>
       <c r="N10">
-        <v>9.587938706845559</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.633213569324409</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.07251379943773</v>
+        <v>30.99561112220648</v>
       </c>
       <c r="C11">
-        <v>19.80320539315215</v>
+        <v>20.55088811830776</v>
       </c>
       <c r="D11">
-        <v>4.438149020384734</v>
+        <v>4.863375707811332</v>
       </c>
       <c r="E11">
-        <v>8.428293940800028</v>
+        <v>8.18189385737081</v>
       </c>
       <c r="F11">
-        <v>25.23786460194314</v>
+        <v>22.82660849855141</v>
       </c>
       <c r="G11">
-        <v>34.77226048195962</v>
+        <v>32.5355695758237</v>
       </c>
       <c r="H11">
-        <v>3.635393925862381</v>
+        <v>3.521484152185286</v>
       </c>
       <c r="J11">
-        <v>10.37657246655979</v>
+        <v>9.240936238192164</v>
       </c>
       <c r="K11">
-        <v>14.29950484320566</v>
+        <v>12.64469385975433</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.97393078755815</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.241568344707261</v>
       </c>
       <c r="N11">
-        <v>8.670057932747039</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.68208182524897</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.44287585511629</v>
+        <v>31.36347753403336</v>
       </c>
       <c r="C12">
-        <v>20.67901729528876</v>
+        <v>21.26836818915576</v>
       </c>
       <c r="D12">
-        <v>4.707117253743914</v>
+        <v>5.15828139944804</v>
       </c>
       <c r="E12">
-        <v>8.458599906401279</v>
+        <v>8.277681020083566</v>
       </c>
       <c r="F12">
-        <v>23.7337250913985</v>
+        <v>21.41698616926037</v>
       </c>
       <c r="G12">
-        <v>32.04745552045424</v>
+        <v>30.59796720774015</v>
       </c>
       <c r="H12">
-        <v>4.704509301916633</v>
+        <v>4.614859655227388</v>
       </c>
       <c r="J12">
-        <v>9.761069945955922</v>
+        <v>8.53331128194311</v>
       </c>
       <c r="K12">
-        <v>12.99498690147164</v>
+        <v>11.57644860830482</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.2893574455771</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.336597354039777</v>
       </c>
       <c r="N12">
-        <v>7.831246731392029</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.820864196207284</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.33937124053572</v>
+        <v>31.26558498011068</v>
       </c>
       <c r="C13">
-        <v>21.25443978054331</v>
+        <v>21.71252383315985</v>
       </c>
       <c r="D13">
-        <v>4.968439595643718</v>
+        <v>5.388058036146137</v>
       </c>
       <c r="E13">
-        <v>8.749700552259062</v>
+        <v>8.624317031497799</v>
       </c>
       <c r="F13">
-        <v>22.02178281474949</v>
+        <v>20.03223285430079</v>
       </c>
       <c r="G13">
-        <v>29.01818355770374</v>
+        <v>27.96977733355638</v>
       </c>
       <c r="H13">
-        <v>5.891456262260368</v>
+        <v>5.826270224508595</v>
       </c>
       <c r="J13">
-        <v>9.141952982833953</v>
+        <v>8.183429055319543</v>
       </c>
       <c r="K13">
-        <v>11.83138420084362</v>
+        <v>10.77967091650306</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.827461090837154</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.545503034713976</v>
       </c>
       <c r="N13">
-        <v>7.000280858926004</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.976486497461402</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.05175697882011</v>
+        <v>30.98532357252437</v>
       </c>
       <c r="C14">
-        <v>21.53022946188834</v>
+        <v>21.90638005431996</v>
       </c>
       <c r="D14">
-        <v>5.149349734272344</v>
+        <v>5.519283053723007</v>
       </c>
       <c r="E14">
-        <v>9.099695219343609</v>
+        <v>9.006650964899428</v>
       </c>
       <c r="F14">
-        <v>20.71100819223997</v>
+        <v>19.0564983041986</v>
       </c>
       <c r="G14">
-        <v>26.72150209010034</v>
+        <v>25.78781171305349</v>
       </c>
       <c r="H14">
-        <v>6.767649147858415</v>
+        <v>6.717392248118627</v>
       </c>
       <c r="J14">
-        <v>8.708818130834803</v>
+        <v>8.076859297386264</v>
       </c>
       <c r="K14">
-        <v>11.11147408312088</v>
+        <v>10.35690838431078</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.599127185112435</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.061301874119933</v>
       </c>
       <c r="N14">
-        <v>6.436617643260982</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.407699163830592</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.87886520043892</v>
+        <v>30.8159641264063</v>
       </c>
       <c r="C15">
-        <v>21.53236864072416</v>
+        <v>21.89366838757182</v>
       </c>
       <c r="D15">
-        <v>5.186838461057673</v>
+        <v>5.534338705881289</v>
       </c>
       <c r="E15">
-        <v>9.189666859374594</v>
+        <v>9.105806432307228</v>
       </c>
       <c r="F15">
-        <v>20.34775060921872</v>
+        <v>18.81960205985918</v>
       </c>
       <c r="G15">
-        <v>26.09530646493158</v>
+        <v>25.11752295789209</v>
       </c>
       <c r="H15">
-        <v>6.965462832857723</v>
+        <v>6.919575131234051</v>
       </c>
       <c r="J15">
-        <v>8.604695007595877</v>
+        <v>8.108309056476838</v>
       </c>
       <c r="K15">
-        <v>10.96943571009314</v>
+        <v>10.30140664946656</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.573656167588704</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.971317260175635</v>
       </c>
       <c r="N15">
-        <v>6.296780496466707</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.268701867864217</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.88520497992048</v>
+        <v>29.83892430045452</v>
       </c>
       <c r="C16">
-        <v>20.8667232055212</v>
+        <v>21.27224530248429</v>
       </c>
       <c r="D16">
-        <v>5.098816490163832</v>
+        <v>5.365271270620216</v>
       </c>
       <c r="E16">
-        <v>9.010545712777963</v>
+        <v>8.950481295873356</v>
       </c>
       <c r="F16">
-        <v>20.01602036962436</v>
+        <v>18.85375920280016</v>
       </c>
       <c r="G16">
-        <v>25.62270071837452</v>
+        <v>24.04676375001151</v>
       </c>
       <c r="H16">
-        <v>6.668824798084455</v>
+        <v>6.634945791227046</v>
       </c>
       <c r="J16">
-        <v>8.632846213555638</v>
+        <v>8.617081172342097</v>
       </c>
       <c r="K16">
-        <v>11.23315890912429</v>
+        <v>10.6941169814172</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.831486874990885</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.199392403101918</v>
       </c>
       <c r="N16">
-        <v>6.228390180704724</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.219370383722764</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.26610086888792</v>
+        <v>29.22824231629745</v>
       </c>
       <c r="C17">
-        <v>20.18943808473629</v>
+        <v>20.66243042574132</v>
       </c>
       <c r="D17">
-        <v>4.931741819498136</v>
+        <v>5.172827564229371</v>
       </c>
       <c r="E17">
-        <v>8.655350423979332</v>
+        <v>8.593698473788161</v>
       </c>
       <c r="F17">
-        <v>20.49083161582163</v>
+        <v>19.38526981398433</v>
       </c>
       <c r="G17">
-        <v>26.54658095937589</v>
+        <v>24.54204002909502</v>
       </c>
       <c r="H17">
-        <v>5.922080217578749</v>
+        <v>5.891483825246074</v>
       </c>
       <c r="J17">
-        <v>8.886522774713029</v>
+        <v>9.025391279485543</v>
       </c>
       <c r="K17">
-        <v>11.79792401421585</v>
+        <v>11.20560014265798</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.16515909045087</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.601079217642641</v>
       </c>
       <c r="N17">
-        <v>6.472882455488387</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.479982524053547</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.914260374552</v>
+        <v>28.87915676184147</v>
       </c>
       <c r="C18">
-        <v>19.43794753579063</v>
+        <v>20.02064832498508</v>
       </c>
       <c r="D18">
-        <v>4.691128152693135</v>
+        <v>4.936898602467318</v>
       </c>
       <c r="E18">
-        <v>8.260792739095116</v>
+        <v>8.166500187368163</v>
       </c>
       <c r="F18">
-        <v>21.7006903869431</v>
+        <v>20.45074643683414</v>
       </c>
       <c r="G18">
-        <v>28.75528393955319</v>
+        <v>26.28726089737434</v>
       </c>
       <c r="H18">
-        <v>4.751998866989542</v>
+        <v>4.716698198535481</v>
       </c>
       <c r="J18">
-        <v>9.361706652728632</v>
+        <v>9.48491704690036</v>
       </c>
       <c r="K18">
-        <v>12.72507233030546</v>
+        <v>11.94063640282518</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.65272835306154</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.228494352405754</v>
       </c>
       <c r="N18">
-        <v>7.06166589776864</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.085201516174264</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.8108266843772</v>
+        <v>28.77344985871605</v>
       </c>
       <c r="C19">
-        <v>18.70174596460565</v>
+        <v>19.42207318256133</v>
       </c>
       <c r="D19">
-        <v>4.431483694870026</v>
+        <v>4.693104013495524</v>
       </c>
       <c r="E19">
-        <v>8.124447488594068</v>
+        <v>7.959037524123643</v>
       </c>
       <c r="F19">
-        <v>23.38882796238432</v>
+        <v>21.87104466951796</v>
       </c>
       <c r="G19">
-        <v>31.78838887620597</v>
+        <v>28.80954031270462</v>
       </c>
       <c r="H19">
-        <v>3.513217861558505</v>
+        <v>3.461325341727012</v>
       </c>
       <c r="J19">
-        <v>9.983336729804609</v>
+        <v>9.99362815065016</v>
       </c>
       <c r="K19">
-        <v>13.93548454696421</v>
+        <v>12.86142395694548</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.27083861569228</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.030631953431424</v>
       </c>
       <c r="N19">
-        <v>7.930150280085924</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.969428579748611</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.41002932043187</v>
+        <v>29.35615045339881</v>
       </c>
       <c r="C20">
-        <v>18.07133989560766</v>
+        <v>19.00107323190545</v>
       </c>
       <c r="D20">
-        <v>4.130772223368105</v>
+        <v>4.430786946331853</v>
       </c>
       <c r="E20">
-        <v>8.67901847090897</v>
+        <v>8.361683429315956</v>
       </c>
       <c r="F20">
-        <v>26.28848973176472</v>
+        <v>24.19023154270169</v>
       </c>
       <c r="G20">
-        <v>36.88237565285603</v>
+        <v>33.2669916214843</v>
       </c>
       <c r="H20">
-        <v>2.81036001010725</v>
+        <v>2.709162119954037</v>
       </c>
       <c r="J20">
-        <v>10.98396201616259</v>
+        <v>10.60580188351594</v>
       </c>
       <c r="K20">
-        <v>15.85828390331184</v>
+        <v>14.22507326175952</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.15006131650799</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.304453768528992</v>
       </c>
       <c r="N20">
-        <v>9.461759585065774</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.515085206555105</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.22774857473844</v>
+        <v>31.13884817081361</v>
       </c>
       <c r="C21">
-        <v>19.00723045476578</v>
+        <v>19.90375828860281</v>
       </c>
       <c r="D21">
-        <v>4.144436144238036</v>
+        <v>4.590388906636793</v>
       </c>
       <c r="E21">
-        <v>8.998963974536656</v>
+        <v>8.625495102409138</v>
       </c>
       <c r="F21">
-        <v>27.67782448896407</v>
+        <v>24.71301449085332</v>
       </c>
       <c r="G21">
-        <v>39.08387143243415</v>
+        <v>36.46816870794517</v>
       </c>
       <c r="H21">
-        <v>3.190851656324784</v>
+        <v>3.031255996428011</v>
       </c>
       <c r="J21">
-        <v>11.28845754502515</v>
+        <v>9.633301430311239</v>
       </c>
       <c r="K21">
-        <v>16.15954456147052</v>
+        <v>13.9438685641988</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.7962554545845</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.41399929777412</v>
       </c>
       <c r="N21">
-        <v>10.01219994494048</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>10.03852249738994</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.36458613035898</v>
+        <v>32.25244400255389</v>
       </c>
       <c r="C22">
-        <v>19.63878413944725</v>
+        <v>20.49615143751568</v>
       </c>
       <c r="D22">
-        <v>4.165884122490148</v>
+        <v>4.714938829580198</v>
       </c>
       <c r="E22">
-        <v>9.16521318430852</v>
+        <v>8.76439210943254</v>
       </c>
       <c r="F22">
-        <v>28.46624254425911</v>
+        <v>24.93445461519712</v>
       </c>
       <c r="G22">
-        <v>40.30649294995523</v>
+        <v>38.43677495486759</v>
       </c>
       <c r="H22">
-        <v>3.428027311808282</v>
+        <v>3.231319612792165</v>
       </c>
       <c r="J22">
-        <v>11.45027084436633</v>
+        <v>8.933725286478628</v>
       </c>
       <c r="K22">
-        <v>16.28118391956772</v>
+        <v>13.6801779437091</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.51258813589918</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.432171596507686</v>
       </c>
       <c r="N22">
-        <v>10.29464650820463</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>10.30207194203198</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.76227650328502</v>
+        <v>31.66331219812222</v>
       </c>
       <c r="C23">
-        <v>19.3038897858722</v>
+        <v>20.20100922020454</v>
       </c>
       <c r="D23">
-        <v>4.154492103778574</v>
+        <v>4.638527480804405</v>
       </c>
       <c r="E23">
-        <v>9.076626118312255</v>
+        <v>8.689742446103317</v>
       </c>
       <c r="F23">
-        <v>28.04534281986498</v>
+        <v>24.88237583880708</v>
       </c>
       <c r="G23">
-        <v>39.65405093404239</v>
+        <v>37.23465998269041</v>
       </c>
       <c r="H23">
-        <v>3.301710413681771</v>
+        <v>3.126105129364259</v>
       </c>
       <c r="J23">
-        <v>11.36314465778438</v>
+        <v>9.428179542435581</v>
       </c>
       <c r="K23">
-        <v>16.21447411152311</v>
+        <v>13.85898457907479</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.68820143669877</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.454140837952981</v>
       </c>
       <c r="N23">
-        <v>10.14468042597017</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>10.1640994683689</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.3828667411151</v>
+        <v>29.32881634405097</v>
       </c>
       <c r="C24">
-        <v>17.98743771267669</v>
+        <v>18.93024810448495</v>
       </c>
       <c r="D24">
-        <v>4.110157392486627</v>
+        <v>4.407769817975371</v>
       </c>
       <c r="E24">
-        <v>8.737719536053492</v>
+        <v>8.410533780479172</v>
       </c>
       <c r="F24">
-        <v>26.45408699428316</v>
+        <v>24.33361511811569</v>
       </c>
       <c r="G24">
-        <v>37.1815950461664</v>
+        <v>33.5065830239191</v>
       </c>
       <c r="H24">
-        <v>2.81708134360291</v>
+        <v>2.715452606180211</v>
       </c>
       <c r="J24">
-        <v>11.04972299598734</v>
+        <v>10.667667762021</v>
       </c>
       <c r="K24">
-        <v>16.00005139618995</v>
+        <v>14.33881453724144</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.23000137941801</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.39603976789008</v>
       </c>
       <c r="N24">
-        <v>9.559588563867734</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.614644403397959</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.602231601332</v>
+        <v>26.58555556410581</v>
       </c>
       <c r="C25">
-        <v>16.46343033874505</v>
+        <v>17.22747566313986</v>
       </c>
       <c r="D25">
-        <v>4.059944115948693</v>
+        <v>4.260217785193193</v>
       </c>
       <c r="E25">
-        <v>8.363433668324264</v>
+        <v>8.104725040229942</v>
       </c>
       <c r="F25">
-        <v>24.74791841211179</v>
+        <v>23.01991395396512</v>
       </c>
       <c r="G25">
-        <v>34.51734736949192</v>
+        <v>31.20208068009923</v>
       </c>
       <c r="H25">
-        <v>2.279048515349857</v>
+        <v>2.241397344082224</v>
       </c>
       <c r="J25">
-        <v>10.74562487878332</v>
+        <v>10.5758348188832</v>
       </c>
       <c r="K25">
-        <v>15.84358629167003</v>
+        <v>14.4820295455073</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.54781257559387</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.088910231724775</v>
       </c>
       <c r="N25">
-        <v>8.892365867808335</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.964755322554302</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
